--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>2sum</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>rotated_sorted_array_search</t>
+  </si>
+  <si>
+    <t>Linked_List_Cycle</t>
+  </si>
+  <si>
+    <t>Linked_List_Cycle2</t>
+  </si>
+  <si>
+    <t>Linked_List_Remove_Duplicate</t>
+  </si>
+  <si>
+    <t>Linked_List_Remove_Duplicate_II</t>
+  </si>
+  <si>
+    <t>Linked_List_Remove_Element</t>
+  </si>
+  <si>
+    <t>Linked_List_Reverse</t>
   </si>
 </sst>
 </file>
@@ -423,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -514,6 +532,36 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
